--- a/Tool3/dataset.xlsx
+++ b/Tool3/dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>提出方式</t>
   </si>
@@ -92,6 +88,9 @@
   </si>
   <si>
     <t>领导经常施加高压，员工压力过大</t>
+  </si>
+  <si>
+    <t>流程，知识库，</t>
   </si>
 </sst>
 </file>
@@ -747,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,19 +765,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,13 +1296,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.46153846153846" customWidth="1"/>
     <col min="2" max="2" width="16.3846153846154" customWidth="1"/>
@@ -1336,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="75" spans="1:5">
+    <row r="2" ht="17.6" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1349,7 +1339,7 @@
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1360,11 +1350,11 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
     </row>
@@ -1375,11 +1365,11 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1390,13 +1380,13 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1407,13 +1397,13 @@
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1424,13 +1414,13 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1438,17 +1428,22 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
